--- a/DATA_goal/Junction_Flooding_179.xlsx
+++ b/DATA_goal/Junction_Flooding_179.xlsx
@@ -446,7 +446,7 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -464,7 +464,7 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -655,103 +655,103 @@
         <v>41611.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.73</v>
+        <v>1.47</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>31.76</v>
+        <v>3.18</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>24.18</v>
+        <v>2.42</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.49</v>
+        <v>3.45</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.92</v>
+        <v>1.79</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.24</v>
+        <v>0.72</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.84</v>
+        <v>1.08</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.45</v>
+        <v>1.25</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.18</v>
+        <v>1.32</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.71</v>
+        <v>0.37</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.95</v>
+        <v>1.6</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.22</v>
+        <v>1.02</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>168.88</v>
+        <v>16.89</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>32.09</v>
+        <v>3.21</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.69</v>
+        <v>1.07</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.66</v>
+        <v>2.07</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.63</v>
+        <v>1.06</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.17</v>
+        <v>1.82</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.6</v>
+        <v>0.86</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.6</v>
+        <v>1.26</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>31.17</v>
+        <v>3.12</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41611.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.87</v>
+        <v>1.39</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>30.35</v>
+        <v>3.03</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.89</v>
+        <v>2.39</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>41.56</v>
+        <v>4.16</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.87</v>
+        <v>1.69</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.05</v>
+        <v>1.21</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.8</v>
+        <v>1.28</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.3</v>
+        <v>1.53</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.52</v>
+        <v>0.95</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AC3" s="4" t="n">
         <v>0.95</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>158.63</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>30.51</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>20.08</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>9.49</v>
-      </c>
       <c r="AD3" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>38.19</v>
+        <v>3.82</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41611.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.59</v>
+        <v>1.86</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>40.63</v>
+        <v>4.06</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.73</v>
+        <v>3.27</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.54</v>
+        <v>1.45</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>55.94</v>
+        <v>5.59</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.57</v>
+        <v>2.26</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.91</v>
+        <v>0.99</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.61</v>
+        <v>1.46</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.23</v>
+        <v>1.62</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.23</v>
+        <v>1.72</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.66</v>
+        <v>2.07</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.45</v>
+        <v>1.24</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>214.71</v>
+        <v>21.47</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>40.78</v>
+        <v>4.08</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>27.22</v>
+        <v>2.72</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.27</v>
+        <v>1.43</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.34</v>
+        <v>0.23</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>27.35</v>
+        <v>2.74</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.61</v>
+        <v>1.06</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.86</v>
+        <v>1.69</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>50.98</v>
+        <v>5.1</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41611.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>11.68</v>
+        <v>1.17</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41611.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>14.75</v>
+        <v>1.47</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>10.89</v>
+        <v>1.09</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>32.27</v>
+        <v>3.23</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>26.12</v>
+        <v>2.61</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>11.55</v>
+        <v>1.15</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>41.07</v>
+        <v>4.11</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>17.92</v>
+        <v>1.79</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>11.68</v>
+        <v>1.17</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>12.9</v>
+        <v>1.29</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>16.4</v>
+        <v>1.64</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>168.9</v>
+        <v>16.89</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>32.2</v>
+        <v>3.22</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>10.69</v>
+        <v>1.07</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>21.56</v>
+        <v>2.16</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>20.28</v>
+        <v>2.03</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>13.44</v>
+        <v>1.34</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>36.96</v>
+        <v>3.7</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41611.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6.2</v>
+        <v>0.62</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AD7" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>22.15</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>67.09</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>5.62</v>
-      </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>20.5</v>
+        <v>2.05</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41611.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>4.67</v>
+        <v>0.47</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>10.31</v>
+        <v>1.03</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>3.63</v>
+        <v>0.36</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>15.97</v>
+        <v>1.6</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>3.57</v>
+        <v>0.36</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>3.23</v>
+        <v>0.32</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>48.75</v>
+        <v>4.88</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>10.37</v>
+        <v>1.04</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>6.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>14.65</v>
+        <v>1.47</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>1.85</v>
+        <v>0.19</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>4.25</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41611.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="D9" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AB9" s="4" t="n">
         <v>0.65</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>25.14</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>20.42</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>32.66</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>129.99</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>25.13</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>16.86</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>6.53</v>
-      </c>
       <c r="AC9" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>29.49</v>
+        <v>2.95</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>4.67</v>
+        <v>0.47</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41611.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>4.07</v>
+        <v>0.41</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>12.18</v>
+        <v>1.22</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>4.33</v>
+        <v>0.43</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>19.51</v>
+        <v>1.95</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>6.75</v>
+        <v>0.67</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>3.75</v>
+        <v>0.38</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>59.07</v>
+        <v>5.91</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>12.34</v>
+        <v>1.23</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>8.25</v>
+        <v>0.82</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>4.28</v>
+        <v>0.43</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>18.02</v>
+        <v>1.8</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_179.xlsx
+++ b/DATA_goal/Junction_Flooding_179.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -465,7 +465,7 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -652,263 +652,263 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41611.34027777778</v>
+        <v>44860.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.97</v>
+        <v>1.13</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.18</v>
+        <v>3.58</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.42</v>
+        <v>2.79</v>
       </c>
       <c r="G2" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q2" s="4" t="n">
         <v>1.14</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.02</v>
-      </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>16.89</v>
+        <v>19.29</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.21</v>
+        <v>3.65</v>
       </c>
       <c r="V2" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA2" s="4" t="n">
         <v>1.07</v>
       </c>
-      <c r="W2" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
       <c r="AB2" s="4" t="n">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.02</v>
+        <v>1.15</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.12</v>
+        <v>3.64</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41611.34722222222</v>
+        <v>44860.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.39</v>
+        <v>1.63</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.98</v>
+        <v>1.16</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.03</v>
+        <v>3.54</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.39</v>
+        <v>2.83</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.16</v>
+        <v>4.9</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.69</v>
+        <v>1.98</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="M3" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O3" s="4" t="n">
         <v>1.28</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.09</v>
-      </c>
       <c r="P3" s="4" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.86</v>
+        <v>18.72</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.05</v>
+        <v>3.58</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.01</v>
+        <v>2.37</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.05</v>
+        <v>1.23</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.89</v>
+        <v>1.04</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.82</v>
+        <v>4.48</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41611.35416666666</v>
+        <v>44860.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="G4" s="4" t="n">
         <v>1.36</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.45</v>
-      </c>
       <c r="H4" s="4" t="n">
-        <v>5.59</v>
+        <v>5.28</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.26</v>
+        <v>2.09</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.1</v>
@@ -917,777 +917,257 @@
         <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21.47</v>
+        <v>19.87</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.08</v>
+        <v>3.79</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.72</v>
+        <v>2.53</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.74</v>
+        <v>2.56</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.1</v>
+        <v>4.81</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41611.36111111111</v>
+        <v>44860.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.67</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.47</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.28</v>
+        <v>1.46</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.15</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.53</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.17</v>
+        <v>2.46</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.61</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.53</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.46</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.28</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.33</v>
+        <v>1.49</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.49</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.22</v>
+        <v>0.98</v>
       </c>
       <c r="X5" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.51</v>
+        <v>1.14</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.43</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.39</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.61</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.14</v>
+        <v>2.27</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.26</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41611.36805555555</v>
+        <v>44860.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.47</v>
+        <v>19.22</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.09</v>
+        <v>14.17</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.09</v>
+        <v>1.07</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.23</v>
+        <v>41.78</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.61</v>
+        <v>34.08</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.15</v>
+        <v>15.12</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.11</v>
+        <v>55.82</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.79</v>
+        <v>23.27</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.79</v>
+        <v>10.32</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.17</v>
+        <v>15.26</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.29</v>
+        <v>16.77</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.37</v>
+        <v>17.69</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.37</v>
+        <v>4.83</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.16</v>
+        <v>15.04</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.64</v>
+        <v>21.38</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.98</v>
+        <v>12.69</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>16.89</v>
+        <v>221.57</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.22</v>
+        <v>41.98</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.07</v>
+        <v>13.88</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.16</v>
+        <v>28.2</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.14</v>
+        <v>14.8</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.18</v>
+        <v>2.24</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.03</v>
+        <v>27.49</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>12.26</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.84</v>
+        <v>10.86</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.99</v>
+        <v>12.79</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.34</v>
+        <v>17.61</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.7</v>
+        <v>50.58</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.6</v>
+        <v>7.8</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41611.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41611.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41611.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41611.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41611.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>23.89</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>42.78</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>18.77</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>68.84</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>22.14</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>26.71</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>277.66</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>52.27</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>17.28</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>34.23</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>15.83</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>62.46</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>21.61</v>
+        <v>17.35</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_179.xlsx
+++ b/DATA_goal/Junction_Flooding_179.xlsx
@@ -464,8 +464,8 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -655,103 +655,103 @@
         <v>44860.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.68</v>
+        <v>16.81</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.58</v>
+        <v>35.81</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.79</v>
+        <v>27.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.23</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.07</v>
+        <v>40.65</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.36</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.08</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.6</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.25</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.43</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>19.29</v>
+        <v>192.92</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.65</v>
+        <v>36.53</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.38</v>
+        <v>23.79</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.2</v>
+        <v>12.05</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.79</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.85</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.64</v>
+        <v>36.38</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.52</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44860.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.33</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.6</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.54</v>
+        <v>35.38</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.83</v>
+        <v>28.26</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.85</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.9</v>
+        <v>49.01</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>187.25</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>35.76</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.25</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>4.48</v>
+        <v>44.82</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44860.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.73</v>
+        <v>17.3</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.55</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.76</v>
+        <v>37.56</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.03</v>
+        <v>30.34</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.61</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.28</v>
+        <v>52.85</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.94</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.19</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.5</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.83</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.56</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.87</v>
+        <v>198.69</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.79</v>
+        <v>37.86</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.53</v>
+        <v>25.26</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.2</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.56</v>
+        <v>25.62</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.84</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.6</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.8</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.81</v>
+        <v>48.12</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.95</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44860.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.72</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.6</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.51</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.29</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.46</v>
+        <v>24.61</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.52</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.86</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.43</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.28</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.91</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.44</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.27</v>
+        <v>22.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_179.xlsx
+++ b/DATA_goal/Junction_Flooding_179.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44860.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.81</v>
+        <v>16.815</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.26</v>
+        <v>11.263</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.77</v>
+        <v>3.771</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>35.81</v>
+        <v>35.807</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.94</v>
+        <v>27.941</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.23</v>
+        <v>13.232</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>40.65</v>
+        <v>40.653</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>20.36</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>8.363</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>12.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.08</v>
+        <v>14.083</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.6</v>
+        <v>14.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.22</v>
+        <v>4.223</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.16</v>
+        <v>13.159</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.25</v>
+        <v>18.251</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.43</v>
+        <v>11.431</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.37</v>
+        <v>3.368</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.219</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>192.92</v>
+        <v>192.924</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>36.53</v>
+        <v>36.527</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.146</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.79</v>
+        <v>23.789</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.05</v>
+        <v>12.048</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.16</v>
+        <v>3.162</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.79</v>
+        <v>20.789</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.728</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.56</v>
+        <v>9.564</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.53</v>
+        <v>11.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.85</v>
+        <v>14.849</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.316</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>36.38</v>
+        <v>36.381</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>6.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.18</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44860.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.33</v>
+        <v>16.334</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.6</v>
+        <v>11.598</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.77</v>
+        <v>1.775</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>35.38</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>28.26</v>
+        <v>28.262</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.85</v>
+        <v>12.855</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>49.01</v>
+        <v>49.006</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.78</v>
+        <v>19.779</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>8.541</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.5</v>
+        <v>12.502</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.15</v>
+        <v>14.153</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.8</v>
+        <v>14.804</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.11</v>
+        <v>4.106</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18</v>
+        <v>18.003</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.05</v>
+        <v>11.046</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.52</v>
+        <v>1.523</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.09</v>
+        <v>1.088</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>187.25</v>
+        <v>187.248</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>35.76</v>
+        <v>35.764</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>23.67</v>
+        <v>23.675</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.29</v>
+        <v>12.294</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.36</v>
+        <v>2.359</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>23.97</v>
+        <v>23.973</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.34</v>
+        <v>9.337999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>11.06</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.84</v>
+        <v>14.837</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>44.82</v>
+        <v>44.819</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.48</v>
+        <v>6.485</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.75</v>
+        <v>14.752</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44860.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.3</v>
+        <v>17.295</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.55</v>
+        <v>12.547</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.34</v>
+        <v>1.338</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>37.56</v>
+        <v>37.559</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>30.34</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.61</v>
+        <v>13.611</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>52.85</v>
+        <v>52.849</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.94</v>
+        <v>20.942</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.19</v>
+        <v>9.186999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.5</v>
+        <v>13.498</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.06</v>
+        <v>15.063</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.83</v>
+        <v>15.829</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.35</v>
+        <v>4.348</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.53</v>
+        <v>13.535</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.17</v>
+        <v>19.167</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>11.56</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.041</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.86</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>198.69</v>
+        <v>198.692</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>37.86</v>
+        <v>37.859</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.49</v>
+        <v>12.493</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>25.26</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.2</v>
+        <v>13.199</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.22</v>
+        <v>2.224</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>25.62</v>
+        <v>25.617</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.03</v>
+        <v>11.035</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.84</v>
+        <v>9.837999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.6</v>
+        <v>11.602</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.8</v>
+        <v>15.802</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>48.12</v>
+        <v>48.125</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.95</v>
+        <v>6.947</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.62</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>6.08</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44860.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>14.17</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>41.78</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>34.08</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>55.82</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>23.27</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.26</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>21.38</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>221.57</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>41.98</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.49</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.61</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>50.58</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>17.35</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_179.xlsx
+++ b/DATA_goal/Junction_Flooding_179.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44860.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.73</v>
+        <v>6.726</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.72</v>
+        <v>4.719</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.774</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.6</v>
+        <v>14.596</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.51</v>
+        <v>11.507</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.29</v>
+        <v>5.293</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>24.61</v>
+        <v>24.608</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>8.144</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.52</v>
+        <v>3.524</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.03</v>
+        <v>5.032</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.86</v>
+        <v>5.857</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.12</v>
+        <v>6.123</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.7</v>
+        <v>1.696</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.26</v>
+        <v>5.263</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.43</v>
+        <v>7.428</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.64</v>
+        <v>4.638</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72.81999999999999</v>
+        <v>72.818</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.91</v>
+        <v>14.908</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.86</v>
+        <v>4.858</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.82</v>
+        <v>9.823</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.07</v>
+        <v>5.071</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.03</v>
+        <v>1.025</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.44</v>
+        <v>11.443</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.29</v>
+        <v>4.291</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.9</v>
+        <v>3.896</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>4.59</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.13</v>
+        <v>6.132</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>22.72</v>
+        <v>22.721</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>2.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.08</v>
+        <v>6.075</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44860.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>34.08</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>55.82</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>221.57</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>50.58</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>17.35</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_179.xlsx
+++ b/DATA_goal/Junction_Flooding_179.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44860.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.726</v>
+        <v>6.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.719</v>
+        <v>4.72</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.774</v>
+        <v>0.77</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.596</v>
+        <v>14.6</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.507</v>
+        <v>11.51</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.293</v>
+        <v>5.29</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>24.608</v>
+        <v>24.61</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.144</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.524</v>
+        <v>3.52</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.032</v>
+        <v>5.03</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.857</v>
+        <v>5.86</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.123</v>
+        <v>6.12</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.696</v>
+        <v>1.7</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.263</v>
+        <v>5.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.428</v>
+        <v>7.43</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.638</v>
+        <v>4.64</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72.818</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.908</v>
+        <v>14.91</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.858</v>
+        <v>4.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.823</v>
+        <v>9.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.071</v>
+        <v>5.07</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.025</v>
+        <v>1.03</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.443</v>
+        <v>11.44</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.291</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.896</v>
+        <v>3.9</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>4.59</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.132</v>
+        <v>6.13</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>22.721</v>
+        <v>22.72</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>2.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.075</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44860.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>14.17</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>41.78</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>34.08</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>55.82</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>23.27</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.26</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>21.38</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>221.57</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>41.98</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.49</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.61</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>50.58</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>17.35</v>
+        <v>6.08</v>
       </c>
     </row>
   </sheetData>
